--- a/Ananse0/English.xlsx
+++ b/Ananse0/English.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBEA09A-C231-4091-B19F-C9038594CE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F23D60-7B14-4FBF-84E8-0B36692364FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="7200" windowWidth="27750" windowHeight="4485" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29625" yWindow="8925" windowWidth="25245" windowHeight="5235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Learned" sheetId="1" r:id="rId1"/>
     <sheet name="Learned Layman" sheetId="2" r:id="rId2"/>
-    <sheet name="Layman " sheetId="3" r:id="rId3"/>
+    <sheet name="Layman" sheetId="3" r:id="rId3"/>
     <sheet name="Simple Layman" sheetId="4" r:id="rId4"/>
     <sheet name="Simple" sheetId="5" r:id="rId5"/>
     <sheet name="Simple Preschool" sheetId="6" r:id="rId6"/>
@@ -4063,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5955,7 +5955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
